--- a/Book1 DATA SCIENCE 1ST.xlsx
+++ b/Book1 DATA SCIENCE 1ST.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SCIENCE FORMULA " sheetId="1" r:id="rId1"/>
     <sheet name="PIE CHARTS " sheetId="2" r:id="rId2"/>
     <sheet name="OR" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t xml:space="preserve">FRUIT </t>
   </si>
@@ -174,15 +175,9 @@
     <t xml:space="preserve">PIE CHART </t>
   </si>
   <si>
-    <t xml:space="preserve">PERCENTILE INC </t>
-  </si>
-  <si>
     <t xml:space="preserve">QUARTILES </t>
   </si>
   <si>
-    <t>1OR</t>
-  </si>
-  <si>
     <t xml:space="preserve">STUDENTS </t>
   </si>
   <si>
@@ -220,6 +215,90 @@
   </si>
   <si>
     <t xml:space="preserve">AKASH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAUE OF EXC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE OF INC </t>
+  </si>
+  <si>
+    <t>IOR</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inter quartile range </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRUITS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIT PRICE </t>
+  </si>
+  <si>
+    <t>VEN1</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>VEN2</t>
+  </si>
+  <si>
+    <t>BLACKBERRY</t>
+  </si>
+  <si>
+    <t>VEN3</t>
+  </si>
+  <si>
+    <t>VEN4</t>
+  </si>
+  <si>
+    <t>VEN5</t>
+  </si>
+  <si>
+    <t>VEN6</t>
+  </si>
+  <si>
+    <t>VEN7</t>
+  </si>
+  <si>
+    <t>VEN8</t>
+  </si>
+  <si>
+    <t>APPLES</t>
+  </si>
+  <si>
+    <t>STRAWBERRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT FUNCTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT OF FRUITS </t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT BLANK </t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>COUNT IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE </t>
   </si>
 </sst>
 </file>
@@ -475,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,9 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,6 +617,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -599,7 +681,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43277287241206164"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -691,7 +780,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PIE CHARTS '!$B$31:$E$31</c:f>
+              <c:f>'PIE CHARTS '!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -711,7 +800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PIE CHARTS '!$B$32:$E$32</c:f>
+              <c:f>'PIE CHARTS '!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -790,7 +879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -872,7 +960,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PIE CHARTS '!$B$31:$E$31</c:f>
+              <c:f>'PIE CHARTS '!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -892,7 +980,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PIE CHARTS '!$B$33:$E$33</c:f>
+              <c:f>'PIE CHARTS '!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -960,18 +1048,24 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="3200"/>
               <a:t>AMAN</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42159158383890533"/>
+          <c:y val="3.1298912251897591E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -987,8 +1081,38 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6302602799650046E-2"/>
-                  <c:y val="0.16269648585593469"/>
+                  <c:x val="3.637704095921012E-2"/>
+                  <c:y val="-0.15313571019831365"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.453605830288583E-2"/>
+                  <c:y val="-5.5610221080028957E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12422559152810614"/>
+                  <c:y val="-0.10111555272058266"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1002,8 +1126,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.3689085739282595E-2"/>
-                  <c:y val="-1.3460557013706621E-2"/>
+                  <c:x val="-6.3763636245221203E-2"/>
+                  <c:y val="-0.12090871706309569"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1023,7 +1147,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PIE CHARTS '!$B$31:$E$31</c:f>
+              <c:f>'PIE CHARTS '!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1043,7 +1167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PIE CHARTS '!$B$34:$E$34</c:f>
+              <c:f>'PIE CHARTS '!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1079,6 +1203,25 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1111,18 +1254,20 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AAKASH</a:t>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>AAKASH </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32421970189506127"/>
+          <c:y val="4.8322428402438125E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1179,6 +1324,21 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13689114810015837"/>
+                  <c:y val="3.5694750656167978E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -1189,7 +1349,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PIE CHARTS '!$B$31:$E$31</c:f>
+              <c:f>'PIE CHARTS '!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1209,7 +1369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PIE CHARTS '!$B$35:$E$35</c:f>
+              <c:f>'PIE CHARTS '!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1245,6 +1405,30 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1258,15 +1442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1287,16 +1471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1317,16 +1501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1347,16 +1531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1684,24 +1868,24 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="15"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1941,10 +2125,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,690 +2147,722 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19">
+        <v>45</v>
+      </c>
+      <c r="C3" s="19">
+        <v>54</v>
+      </c>
+      <c r="D3" s="19">
+        <v>58</v>
+      </c>
+      <c r="E3" s="19">
+        <v>56</v>
+      </c>
+      <c r="F3" s="19">
+        <v>400</v>
+      </c>
+      <c r="G3" s="20">
+        <f>SUM(B3:E3)/F3</f>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19">
+        <v>63</v>
+      </c>
+      <c r="E4" s="19">
+        <v>47</v>
+      </c>
+      <c r="F4" s="19">
+        <v>400</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G6" si="0">SUM(B4:E4)/F4</f>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="19">
+        <v>54</v>
+      </c>
+      <c r="C5" s="19">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19">
+        <v>23</v>
+      </c>
+      <c r="E5" s="19">
+        <v>58</v>
+      </c>
+      <c r="F5" s="19">
+        <v>400</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="19">
+        <v>47</v>
+      </c>
+      <c r="C6" s="19">
+        <v>58</v>
+      </c>
+      <c r="D6" s="19">
+        <v>56</v>
+      </c>
+      <c r="E6" s="19">
+        <v>25</v>
+      </c>
+      <c r="F6" s="19">
+        <v>400</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="H19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>MIN(F20:F31)</f>
         <v>34</v>
       </c>
-      <c r="B3" s="22">
+      <c r="C20" s="1">
+        <f>MAX(F20:F31)</f>
+        <v>95</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="22">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="e">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F31,H20/100)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:$F$31,H20/100)</f>
+        <v>34</v>
+      </c>
+      <c r="K20" s="22" t="e">
+        <f>J20-I20</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>SMALL(F20:F31,1)</f>
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <f>LARGE(F20:F31,1)</f>
+        <v>95</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22">
+      <c r="F21" s="22">
         <v>45</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="H21" s="21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10" t="e">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F32,H21/100)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J21" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F32,H21/100)</f>
+        <v>35.1</v>
+      </c>
+      <c r="K21" s="22" t="e">
+        <f t="shared" ref="K21:K40" si="1">J21-I21</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>_xlfn.PERCENTILE.INC(F20:F31,0)</f>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1">
+        <f>_xlfn.PERCENTILE.EXC(F20:F31,H38/100)</f>
+        <v>92.600000000000009</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="22">
+      <c r="F22" s="22">
         <v>87</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="H22" s="21">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F33,H22/100)</f>
+        <v>34.6</v>
+      </c>
+      <c r="J22" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F33,H22/100)</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999957</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f>_xlfn.QUARTILE.INC(F20:F31,0)</f>
+        <v>34</v>
+      </c>
+      <c r="C23" s="1">
+        <f>_xlfn.QUARTILE.EXC(F20:F31,3)</f>
+        <v>82.5</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="22">
+      <c r="F23" s="22">
         <v>95</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="H23" s="21">
+        <v>15</v>
+      </c>
+      <c r="I23" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F34,H23/100)</f>
+        <v>35.9</v>
+      </c>
+      <c r="J23" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F34,H23/100)</f>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="1"/>
+        <v>2.0500000000000043</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="22">
+        <v>36</v>
+      </c>
+      <c r="H24" s="21">
+        <v>20</v>
+      </c>
+      <c r="I24" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F35,H24/100)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J24" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F35,H24/100)</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="22">
+        <v>78</v>
+      </c>
+      <c r="H25" s="21">
+        <v>25</v>
+      </c>
+      <c r="I25" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F36,H25/100)</f>
+        <v>40.5</v>
+      </c>
+      <c r="J25" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F36,H25/100)</f>
+        <v>43.5</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="22">
+        <v>65</v>
+      </c>
+      <c r="H26" s="21">
+        <v>30</v>
+      </c>
+      <c r="I26" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F37,H26/100)</f>
+        <v>44.4</v>
+      </c>
+      <c r="J26" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F37,H26/100)</f>
+        <v>49.5</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="22">
+        <v>72</v>
+      </c>
+      <c r="H27" s="21">
+        <v>35</v>
+      </c>
+      <c r="I27" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F38,H27/100)</f>
+        <v>53.25</v>
+      </c>
+      <c r="J27" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F38,H27/100)</f>
+        <v>57.749999999999993</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999929</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="22">
+        <v>34</v>
+      </c>
+      <c r="H28" s="21">
+        <v>40</v>
+      </c>
+      <c r="I28" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F40,H28/100)</f>
+        <v>61</v>
+      </c>
+      <c r="J28" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F39,H28/100)</f>
+        <v>62</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="22">
+        <v>84</v>
+      </c>
+      <c r="H29" s="21">
+        <v>45</v>
+      </c>
+      <c r="I29" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F41,H29/100)</f>
+        <v>64.25</v>
+      </c>
+      <c r="J29" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F40,H29/100)</f>
+        <v>64.75</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="22">
+        <v>39</v>
+      </c>
+      <c r="H30" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="I30" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F42,H30/100)</f>
+        <v>68.5</v>
+      </c>
+      <c r="J30" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F41,H30/100)</f>
+        <v>68.5</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="24">
+        <v>60</v>
+      </c>
+      <c r="H31" s="21">
+        <v>55</v>
+      </c>
+      <c r="I31" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F43,H31/100)</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="J31" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F42,H31/100)</f>
+        <v>72.2</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="21">
+        <v>60</v>
+      </c>
+      <c r="I32" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F44,H32/100)</f>
+        <v>75.2</v>
+      </c>
+      <c r="J32" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F43,H32/100)</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.79999999999999716</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="21">
+        <v>65</v>
+      </c>
+      <c r="I33" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F45,H33/100)</f>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J33" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F44,H33/100)</f>
+        <v>76.3</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000853</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="21">
+        <v>70</v>
+      </c>
+      <c r="I34" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F46,H34/100)</f>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="J34" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F45,H34/100)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="1"/>
+        <v>-1.1999999999999886</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="21">
+        <v>75</v>
+      </c>
+      <c r="I35" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F47,H35/100)</f>
+        <v>82.5</v>
+      </c>
+      <c r="J35" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F46,H35/100)</f>
+        <v>79.5</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="21">
+        <v>80</v>
+      </c>
+      <c r="I36" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F48,H36/100)</f>
+        <v>85.2</v>
+      </c>
+      <c r="J36" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F47,H36/100)</f>
+        <v>82.800000000000011</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="1"/>
+        <v>-2.3999999999999915</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="21">
+        <v>85</v>
+      </c>
+      <c r="I37" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F49,H37/100)</f>
+        <v>87.399999999999991</v>
+      </c>
+      <c r="J37" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F48,H37/100)</f>
+        <v>85.05</v>
+      </c>
+      <c r="K37" s="22">
+        <f t="shared" si="1"/>
+        <v>-2.3499999999999943</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H38" s="21">
+        <v>90</v>
+      </c>
+      <c r="I38" s="10">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F50,H38/100)</f>
+        <v>92.600000000000009</v>
+      </c>
+      <c r="J38" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F49,H38/100)</f>
+        <v>86.7</v>
+      </c>
+      <c r="K38" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9000000000000057</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="21">
+        <v>95</v>
+      </c>
+      <c r="I39" s="10" t="e">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F51,H39/100)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J39" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F50,H39/100)</f>
+        <v>90.6</v>
+      </c>
+      <c r="K39" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="23">
+        <v>100</v>
+      </c>
+      <c r="I40" s="10" t="e">
+        <f>_xlfn.PERCENTILE.EXC( $F$20:F51,H40/100)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J40" s="10">
+        <f>_xlfn.PERCENTILE.INC($F$20:F51,H40/100)</f>
+        <v>95</v>
+      </c>
+      <c r="K40" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f>_xlfn.QUARTILE.INC($F$20:$F$31,C45)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <f>_xlfn.QUARTILE.EXC(F20:F31,1)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ref="E46:E49" si="2">_xlfn.QUARTILE.INC($F$20:$F$31,C46)</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <f>_xlfn.QUARTILE.EXC(F20:F31,2)</f>
+        <v>68.5</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <f>_xlfn.QUARTILE.EXC(F20:F31,3)</f>
+        <v>82.5</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1">
+        <f>E48-E46</f>
         <v>36</v>
       </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="e">
-        <f t="shared" ref="I7:I16" si="0">_xlfn.PERCENTILE.EXC(B3:B13,H7/100)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" ref="J7:J17" si="1">_xlfn.PERCENTILE.INC(B3:B13,H7/100)</f>
-        <v>34</v>
-      </c>
-      <c r="K7" s="22" t="e">
-        <f>J7-I7</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="22">
-        <v>78</v>
-      </c>
-      <c r="H8" s="21">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K8" s="22" t="e">
-        <f t="shared" ref="K8:K26" si="2">J8-I8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="22">
-        <v>65</v>
-      </c>
-      <c r="H9" s="21">
-        <v>10</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="K9" s="22">
-        <f t="shared" si="2"/>
-        <v>1.5999999999999943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="22">
-        <v>72</v>
-      </c>
-      <c r="H10" s="21">
-        <v>15</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="1"/>
-        <v>36.6</v>
-      </c>
-      <c r="K10" s="22">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <f>D48-D46</f>
         <v>42</v>
       </c>
-      <c r="B11" s="22">
-        <v>34</v>
-      </c>
-      <c r="H11" s="21">
-        <v>20</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="0"/>
-        <v>35.6</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="1"/>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="22">
-        <v>84</v>
-      </c>
-      <c r="H12" s="21">
-        <v>25</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="2"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="22">
-        <v>39</v>
-      </c>
-      <c r="H13" s="21">
-        <v>30</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="0"/>
-        <v>41.1</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="2"/>
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="25">
-        <v>60</v>
-      </c>
-      <c r="H14" s="21">
-        <v>35</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="0"/>
-        <v>41.099999999999994</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="1"/>
-        <v>47.4</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="2"/>
-        <v>6.3000000000000043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15" s="21">
-        <v>40</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="1"/>
-        <v>43.2</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="2"/>
-        <v>4.2000000000000028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" s="21">
-        <v>45</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="0"/>
-        <v>55.8</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="1"/>
-        <v>57.9</v>
-      </c>
-      <c r="K16" s="22">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H17" s="21">
-        <v>50</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" ref="I17:I23" si="3">_xlfn.PERCENTILE.EXC(B3:B13,H17/100)</f>
-        <v>72</v>
-      </c>
-      <c r="J17" s="10">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="2"/>
-        <v>-22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="21">
-        <v>55</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="3"/>
-        <v>69.2</v>
-      </c>
-      <c r="J18" s="10">
-        <f t="shared" ref="J18:J26" si="4">_xlfn.PERCENTILE.INC(B3:B13,H18/100)</f>
-        <v>74</v>
-      </c>
-      <c r="K18" s="22">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H19" s="21">
-        <v>60</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="3"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="K19" s="22">
-        <f t="shared" si="2"/>
-        <v>-3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <f>SMALL(B3:B13,1)</f>
-        <v>34</v>
-      </c>
-      <c r="D20" s="1">
-        <f>MIN(B3:B13)</f>
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="21">
-        <v>65</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J20" s="10">
-        <f t="shared" si="4"/>
-        <v>77.100000000000009</v>
-      </c>
-      <c r="K20" s="22">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <f>LARGE(B3:B13,1)</f>
-        <v>95</v>
-      </c>
-      <c r="D21" s="1">
-        <f>MAX(B3:B13)</f>
-        <v>95</v>
-      </c>
-      <c r="E21" s="1" t="e">
-        <f>_xlfn.PERCENTILE.INC(B3:B14,12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H21" s="21">
-        <v>70</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="3"/>
-        <v>73.8</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" si="4"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="K21" s="22">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="21">
-        <v>75</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" si="4"/>
-        <v>73.5</v>
-      </c>
-      <c r="K22" s="22">
-        <f t="shared" si="2"/>
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H23" s="21">
-        <v>80</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="3"/>
-        <v>79.2</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" si="4"/>
-        <v>76.800000000000011</v>
-      </c>
-      <c r="K23" s="22">
-        <f t="shared" si="2"/>
-        <v>-2.3999999999999915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H24" s="21">
-        <v>85</v>
-      </c>
-      <c r="I24" s="10">
-        <f>_xlfn.PERCENTILE.EXC(B3:B13,H24/100)</f>
-        <v>88.6</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="K24" s="22">
-        <f t="shared" si="2"/>
-        <v>-13.599999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H25" s="21">
-        <v>90</v>
-      </c>
-      <c r="I25" s="10">
-        <f>_xlfn.PERCENTILE.EXC(B4:B14,H25/100)</f>
-        <v>93.4</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="4"/>
-        <v>79.199999999999989</v>
-      </c>
-      <c r="K25" s="22">
-        <f t="shared" si="2"/>
-        <v>-14.200000000000017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="23">
-        <v>100</v>
-      </c>
-      <c r="I26" s="24" t="e">
-        <f>_xlfn.PERCENTILE.EXC(B5:B15,H26/100)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="K26" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="19">
-        <v>45</v>
-      </c>
-      <c r="C32" s="19">
-        <v>54</v>
-      </c>
-      <c r="D32" s="19">
-        <v>58</v>
-      </c>
-      <c r="E32" s="19">
-        <v>56</v>
-      </c>
-      <c r="F32" s="19">
-        <v>400</v>
-      </c>
-      <c r="G32" s="20">
-        <f>SUM(B32:E32)/F32</f>
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="19">
-        <v>47</v>
-      </c>
-      <c r="C33" s="19">
-        <v>25</v>
-      </c>
-      <c r="D33" s="19">
-        <v>63</v>
-      </c>
-      <c r="E33" s="19">
-        <v>47</v>
-      </c>
-      <c r="F33" s="19">
-        <v>400</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" ref="G33:G35" si="5">SUM(B33:E33)/F33</f>
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="19">
-        <v>54</v>
-      </c>
-      <c r="C34" s="19">
-        <v>20</v>
-      </c>
-      <c r="D34" s="19">
-        <v>23</v>
-      </c>
-      <c r="E34" s="19">
-        <v>58</v>
-      </c>
-      <c r="F34" s="19">
-        <v>400</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="5"/>
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="19">
-        <v>47</v>
-      </c>
-      <c r="C35" s="19">
-        <v>58</v>
-      </c>
-      <c r="D35" s="19">
-        <v>56</v>
-      </c>
-      <c r="E35" s="19">
-        <v>25</v>
-      </c>
-      <c r="F35" s="19">
-        <v>400</v>
-      </c>
-      <c r="G35" s="20">
-        <f t="shared" si="5"/>
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <f>_xlfn.QUARTILE.INC(B3:B14,0)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <f>_xlfn.QUARTILE.EXC(B3:B14,1)</f>
-        <v>40.5</v>
-      </c>
-      <c r="E44" s="1">
-        <f>_xlfn.QUARTILE.INC(B3:B14,1)</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <f>_xlfn.QUARTILE.EXC(B3:B14,2)</f>
-        <v>68.5</v>
-      </c>
-      <c r="E45" s="1">
-        <f>_xlfn.QUARTILE.INC(B3:B14,2)</f>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <f>_xlfn.QUARTILE.EXC(B3:B14,3)</f>
-        <v>82.5</v>
-      </c>
-      <c r="E46" s="1">
-        <f>_xlfn.QUARTILE.INC(B3:B14,3)</f>
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1">
-        <f>_xlfn.QUARTILE.INC(B6:B16,4)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="1">
-        <f>E46-E44</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="1">
-        <f>D46-D44</f>
-        <v>42</v>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2660,8 +2876,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,29 +2889,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,8 +2924,8 @@
       <c r="C2" s="1">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="e">
-        <f ca="1">IFS(B2&lt;30,"F",AND(B2&gt;30,B2&lt;40),"E",AND(B2&gt;40,B2&lt;50),"D",AND(B2&gt;50,B2&lt;60),"C",AND(B2&gt;60,B2&lt;70),"B",AND(B2&gt;70,B2&lt;80),"B+",AND(B2&gt;80,B2&lt;90),"A",B2&gt;90,"A+")</f>
+      <c r="D2" s="33" t="e">
+        <f ca="1">IFS(C2&lt;30,"F",AND(C2&gt;30,C2&lt;40),"E",AND(C2&gt;40,C2&lt;50),"D",AND(C2&gt;50,C2&lt;60),"C",AND(C2&gt;60,C2&lt;70),"B",AND(C2&gt;70,C2&lt;80),"B+",AND(C2&gt;80,C2&lt;90),"A",C2&gt;90,"A+")</f>
         <v>#NAME?</v>
       </c>
       <c r="E2" s="1" t="b">
@@ -3028,7 +3244,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1">
         <v>37</v>
@@ -3055,7 +3271,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>98</v>
@@ -3082,7 +3298,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>50</v>
@@ -3109,7 +3325,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
@@ -3135,9 +3351,212 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="e">
+      <c r="D20" s="32" t="e">
         <f ca="1">IFS(B2&lt;50,"AVERAGE",AND(OR(B2&gt;50,B2=50),OR(B2&lt;80,B2=80)),"DISTINCTION",B2&gt;80,"EXCELLENT")</f>
         <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(B2="APPLE","APPLE","OTHERFRUIT")</f>
+        <v>APPLE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D10" si="0">IF(B3="APPLE","APPLE","OTHERFRUIT")</f>
+        <v>OTHERFRUIT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="e">
+        <f ca="1">UNIQUE(B2:B12)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <f>COUNT(C2:C9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7">
+        <f>COUNTA(C2:C9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <f>COUNTBLANK(B2:B9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(B2:B9,"BANANA")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>OTHERFRUIT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
